--- a/2018/CRM/03_DetailDesign/CRMF9002_Chon lien he.xlsx
+++ b/2018/CRM/03_DetailDesign/CRMF9002_Chon lien he.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\6_Tai lieu Chon lien he\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.CRM\1_Tai lieu phan tich_Yeu cau\03_DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6915" tabRatio="836" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$R$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -892,7 +892,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -924,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -956,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1404,7 +1404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="291">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2533,6 +2533,12 @@
   <si>
     <t>STT yêu cầu là: 2 (bên file tasklist)
 Bổ sung tài liệu: xử lý insert bảng trung gian khi gọi màn hình từ CRMF9002 từ màn hình CRMF2082, Bổ sung câu SQL insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customizeindex  </t>
+  </si>
+  <si>
+    <t>Customizeindex : 92</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3068,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3476,79 +3482,144 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3558,51 +3629,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3657,18 +3683,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3684,14 +3719,62 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3759,63 +3842,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3849,14 +3875,14 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4842,42 +4868,42 @@
       <c r="R13" s="100"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="175"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
       <c r="A16" s="178" t="s">
@@ -4902,384 +4928,384 @@
       <c r="R16" s="101"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="176"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="176"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="193"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="176"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="176"/>
-      <c r="M23" s="176"/>
-      <c r="N23" s="176"/>
-      <c r="O23" s="176"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="193"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="173"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="195"/>
+      <c r="R26" s="195"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="174"/>
-      <c r="Q28" s="174"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="172"/>
-      <c r="AF28" s="172"/>
-      <c r="AG28" s="172"/>
-      <c r="AH28" s="172"/>
-      <c r="AI28" s="172"/>
-      <c r="AJ28" s="172"/>
-      <c r="AK28" s="172"/>
-      <c r="AL28" s="172"/>
-      <c r="AM28" s="172"/>
-      <c r="AN28" s="172"/>
-      <c r="AO28" s="172"/>
-      <c r="AP28" s="172"/>
-      <c r="AQ28" s="172"/>
-      <c r="AR28" s="172"/>
-      <c r="AS28" s="172"/>
-      <c r="AT28" s="172"/>
-      <c r="AU28" s="172"/>
-      <c r="AV28" s="172"/>
-      <c r="AW28" s="172"/>
-      <c r="AX28" s="172"/>
-      <c r="AY28" s="172"/>
-      <c r="AZ28" s="172"/>
-      <c r="BA28" s="172"/>
-      <c r="BB28" s="172"/>
-      <c r="BC28" s="172"/>
-      <c r="BD28" s="172"/>
-      <c r="BE28" s="172"/>
-      <c r="BF28" s="172"/>
-      <c r="BG28" s="172"/>
-      <c r="BH28" s="172"/>
-      <c r="BI28" s="172"/>
-      <c r="BJ28" s="172"/>
-      <c r="BK28" s="172"/>
-      <c r="BL28" s="172"/>
-      <c r="BM28" s="172"/>
-      <c r="BN28" s="172"/>
-      <c r="BO28" s="172"/>
-      <c r="BP28" s="172"/>
-      <c r="BQ28" s="172"/>
-      <c r="BR28" s="172"/>
-      <c r="BS28" s="172"/>
-      <c r="BT28" s="172"/>
-      <c r="BU28" s="172"/>
-      <c r="BV28" s="172"/>
-      <c r="BW28" s="172"/>
-      <c r="BX28" s="172"/>
-      <c r="BY28" s="172"/>
-      <c r="BZ28" s="172"/>
-      <c r="CA28" s="172"/>
-      <c r="CB28" s="172"/>
-      <c r="CC28" s="172"/>
-      <c r="CD28" s="172"/>
-      <c r="CE28" s="172"/>
-      <c r="CF28" s="172"/>
-      <c r="CG28" s="172"/>
-      <c r="CH28" s="172"/>
-      <c r="CI28" s="172"/>
-      <c r="CJ28" s="172"/>
-      <c r="CK28" s="172"/>
-      <c r="CL28" s="172"/>
-      <c r="CM28" s="172"/>
-      <c r="CN28" s="172"/>
-      <c r="CO28" s="172"/>
-      <c r="CP28" s="172"/>
-      <c r="CQ28" s="172"/>
-      <c r="CR28" s="172"/>
-      <c r="CS28" s="172"/>
-      <c r="CT28" s="172"/>
-      <c r="CU28" s="172"/>
-      <c r="CV28" s="172"/>
-      <c r="CW28" s="172"/>
-      <c r="CX28" s="172"/>
-      <c r="CY28" s="172"/>
-      <c r="CZ28" s="172"/>
-      <c r="DA28" s="172"/>
-      <c r="DB28" s="172"/>
-      <c r="DC28" s="172"/>
-      <c r="DD28" s="172"/>
-      <c r="DE28" s="172"/>
-      <c r="DF28" s="172"/>
-      <c r="DG28" s="172"/>
-      <c r="DH28" s="172"/>
-      <c r="DI28" s="172"/>
-      <c r="DJ28" s="172"/>
-      <c r="DK28" s="172"/>
-      <c r="DL28" s="172"/>
-      <c r="DM28" s="172"/>
-      <c r="DN28" s="172"/>
-      <c r="DO28" s="172"/>
-      <c r="DP28" s="172"/>
-      <c r="DQ28" s="172"/>
-      <c r="DR28" s="172"/>
-      <c r="DS28" s="172"/>
-      <c r="DT28" s="172"/>
-      <c r="DU28" s="172"/>
-      <c r="DV28" s="172"/>
-      <c r="DW28" s="172"/>
-      <c r="DX28" s="172"/>
-      <c r="DY28" s="172"/>
-      <c r="DZ28" s="172"/>
-      <c r="EA28" s="172"/>
-      <c r="EB28" s="172"/>
-      <c r="EC28" s="172"/>
-      <c r="ED28" s="172"/>
-      <c r="EE28" s="172"/>
-      <c r="EF28" s="172"/>
-      <c r="EG28" s="172"/>
-      <c r="EH28" s="172"/>
-      <c r="EI28" s="172"/>
-      <c r="EJ28" s="172"/>
-      <c r="EK28" s="172"/>
-      <c r="EL28" s="172"/>
-      <c r="EM28" s="172"/>
-      <c r="EN28" s="172"/>
-      <c r="EO28" s="172"/>
-      <c r="EP28" s="172"/>
-      <c r="EQ28" s="172"/>
-      <c r="ER28" s="172"/>
-      <c r="ES28" s="172"/>
-      <c r="ET28" s="172"/>
-      <c r="EU28" s="172"/>
-      <c r="EV28" s="172"/>
-      <c r="EW28" s="172"/>
-      <c r="EX28" s="172"/>
-      <c r="EY28" s="172"/>
-      <c r="EZ28" s="172"/>
-      <c r="FA28" s="172"/>
-      <c r="FB28" s="172"/>
-      <c r="FC28" s="172"/>
-      <c r="FD28" s="172"/>
-      <c r="FE28" s="172"/>
-      <c r="FF28" s="172"/>
-      <c r="FG28" s="172"/>
-      <c r="FH28" s="172"/>
-      <c r="FI28" s="172"/>
-      <c r="FJ28" s="172"/>
-      <c r="FK28" s="172"/>
-      <c r="FL28" s="172"/>
-      <c r="FM28" s="172"/>
-      <c r="FN28" s="172"/>
-      <c r="FO28" s="172"/>
-      <c r="FP28" s="172"/>
-      <c r="FQ28" s="172"/>
-      <c r="FR28" s="172"/>
-      <c r="FS28" s="172"/>
-      <c r="FT28" s="172"/>
-      <c r="FU28" s="172"/>
-      <c r="FV28" s="172"/>
-      <c r="FW28" s="172"/>
-      <c r="FX28" s="172"/>
-      <c r="FY28" s="172"/>
-      <c r="FZ28" s="172"/>
-      <c r="GA28" s="172"/>
-      <c r="GB28" s="172"/>
-      <c r="GC28" s="172"/>
-      <c r="GD28" s="172"/>
-      <c r="GE28" s="172"/>
-      <c r="GF28" s="172"/>
-      <c r="GG28" s="172"/>
-      <c r="GH28" s="172"/>
-      <c r="GI28" s="172"/>
-      <c r="GJ28" s="172"/>
-      <c r="GK28" s="172"/>
-      <c r="GL28" s="172"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="196"/>
+      <c r="T28" s="196"/>
+      <c r="U28" s="196"/>
+      <c r="V28" s="196"/>
+      <c r="W28" s="196"/>
+      <c r="X28" s="196"/>
+      <c r="Y28" s="196"/>
+      <c r="Z28" s="196"/>
+      <c r="AA28" s="196"/>
+      <c r="AB28" s="196"/>
+      <c r="AC28" s="196"/>
+      <c r="AD28" s="196"/>
+      <c r="AE28" s="196"/>
+      <c r="AF28" s="196"/>
+      <c r="AG28" s="196"/>
+      <c r="AH28" s="196"/>
+      <c r="AI28" s="196"/>
+      <c r="AJ28" s="196"/>
+      <c r="AK28" s="196"/>
+      <c r="AL28" s="196"/>
+      <c r="AM28" s="196"/>
+      <c r="AN28" s="196"/>
+      <c r="AO28" s="196"/>
+      <c r="AP28" s="196"/>
+      <c r="AQ28" s="196"/>
+      <c r="AR28" s="196"/>
+      <c r="AS28" s="196"/>
+      <c r="AT28" s="196"/>
+      <c r="AU28" s="196"/>
+      <c r="AV28" s="196"/>
+      <c r="AW28" s="196"/>
+      <c r="AX28" s="196"/>
+      <c r="AY28" s="196"/>
+      <c r="AZ28" s="196"/>
+      <c r="BA28" s="196"/>
+      <c r="BB28" s="196"/>
+      <c r="BC28" s="196"/>
+      <c r="BD28" s="196"/>
+      <c r="BE28" s="196"/>
+      <c r="BF28" s="196"/>
+      <c r="BG28" s="196"/>
+      <c r="BH28" s="196"/>
+      <c r="BI28" s="196"/>
+      <c r="BJ28" s="196"/>
+      <c r="BK28" s="196"/>
+      <c r="BL28" s="196"/>
+      <c r="BM28" s="196"/>
+      <c r="BN28" s="196"/>
+      <c r="BO28" s="196"/>
+      <c r="BP28" s="196"/>
+      <c r="BQ28" s="196"/>
+      <c r="BR28" s="196"/>
+      <c r="BS28" s="196"/>
+      <c r="BT28" s="196"/>
+      <c r="BU28" s="196"/>
+      <c r="BV28" s="196"/>
+      <c r="BW28" s="196"/>
+      <c r="BX28" s="196"/>
+      <c r="BY28" s="196"/>
+      <c r="BZ28" s="196"/>
+      <c r="CA28" s="196"/>
+      <c r="CB28" s="196"/>
+      <c r="CC28" s="196"/>
+      <c r="CD28" s="196"/>
+      <c r="CE28" s="196"/>
+      <c r="CF28" s="196"/>
+      <c r="CG28" s="196"/>
+      <c r="CH28" s="196"/>
+      <c r="CI28" s="196"/>
+      <c r="CJ28" s="196"/>
+      <c r="CK28" s="196"/>
+      <c r="CL28" s="196"/>
+      <c r="CM28" s="196"/>
+      <c r="CN28" s="196"/>
+      <c r="CO28" s="196"/>
+      <c r="CP28" s="196"/>
+      <c r="CQ28" s="196"/>
+      <c r="CR28" s="196"/>
+      <c r="CS28" s="196"/>
+      <c r="CT28" s="196"/>
+      <c r="CU28" s="196"/>
+      <c r="CV28" s="196"/>
+      <c r="CW28" s="196"/>
+      <c r="CX28" s="196"/>
+      <c r="CY28" s="196"/>
+      <c r="CZ28" s="196"/>
+      <c r="DA28" s="196"/>
+      <c r="DB28" s="196"/>
+      <c r="DC28" s="196"/>
+      <c r="DD28" s="196"/>
+      <c r="DE28" s="196"/>
+      <c r="DF28" s="196"/>
+      <c r="DG28" s="196"/>
+      <c r="DH28" s="196"/>
+      <c r="DI28" s="196"/>
+      <c r="DJ28" s="196"/>
+      <c r="DK28" s="196"/>
+      <c r="DL28" s="196"/>
+      <c r="DM28" s="196"/>
+      <c r="DN28" s="196"/>
+      <c r="DO28" s="196"/>
+      <c r="DP28" s="196"/>
+      <c r="DQ28" s="196"/>
+      <c r="DR28" s="196"/>
+      <c r="DS28" s="196"/>
+      <c r="DT28" s="196"/>
+      <c r="DU28" s="196"/>
+      <c r="DV28" s="196"/>
+      <c r="DW28" s="196"/>
+      <c r="DX28" s="196"/>
+      <c r="DY28" s="196"/>
+      <c r="DZ28" s="196"/>
+      <c r="EA28" s="196"/>
+      <c r="EB28" s="196"/>
+      <c r="EC28" s="196"/>
+      <c r="ED28" s="196"/>
+      <c r="EE28" s="196"/>
+      <c r="EF28" s="196"/>
+      <c r="EG28" s="196"/>
+      <c r="EH28" s="196"/>
+      <c r="EI28" s="196"/>
+      <c r="EJ28" s="196"/>
+      <c r="EK28" s="196"/>
+      <c r="EL28" s="196"/>
+      <c r="EM28" s="196"/>
+      <c r="EN28" s="196"/>
+      <c r="EO28" s="196"/>
+      <c r="EP28" s="196"/>
+      <c r="EQ28" s="196"/>
+      <c r="ER28" s="196"/>
+      <c r="ES28" s="196"/>
+      <c r="ET28" s="196"/>
+      <c r="EU28" s="196"/>
+      <c r="EV28" s="196"/>
+      <c r="EW28" s="196"/>
+      <c r="EX28" s="196"/>
+      <c r="EY28" s="196"/>
+      <c r="EZ28" s="196"/>
+      <c r="FA28" s="196"/>
+      <c r="FB28" s="196"/>
+      <c r="FC28" s="196"/>
+      <c r="FD28" s="196"/>
+      <c r="FE28" s="196"/>
+      <c r="FF28" s="196"/>
+      <c r="FG28" s="196"/>
+      <c r="FH28" s="196"/>
+      <c r="FI28" s="196"/>
+      <c r="FJ28" s="196"/>
+      <c r="FK28" s="196"/>
+      <c r="FL28" s="196"/>
+      <c r="FM28" s="196"/>
+      <c r="FN28" s="196"/>
+      <c r="FO28" s="196"/>
+      <c r="FP28" s="196"/>
+      <c r="FQ28" s="196"/>
+      <c r="FR28" s="196"/>
+      <c r="FS28" s="196"/>
+      <c r="FT28" s="196"/>
+      <c r="FU28" s="196"/>
+      <c r="FV28" s="196"/>
+      <c r="FW28" s="196"/>
+      <c r="FX28" s="196"/>
+      <c r="FY28" s="196"/>
+      <c r="FZ28" s="196"/>
+      <c r="GA28" s="196"/>
+      <c r="GB28" s="196"/>
+      <c r="GC28" s="196"/>
+      <c r="GD28" s="196"/>
+      <c r="GE28" s="196"/>
+      <c r="GF28" s="196"/>
+      <c r="GG28" s="196"/>
+      <c r="GH28" s="196"/>
+      <c r="GI28" s="196"/>
+      <c r="GJ28" s="196"/>
+      <c r="GK28" s="196"/>
+      <c r="GL28" s="196"/>
       <c r="GM28" s="102"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="195"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="195"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="195"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="195"/>
+      <c r="R29" s="195"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="171"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="198"/>
       <c r="K30" s="103"/>
       <c r="L30" s="103"/>
       <c r="M30" s="103"/>
@@ -5290,16 +5316,16 @@
       <c r="R30" s="103"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
       <c r="K31" s="103"/>
       <c r="L31" s="103"/>
       <c r="M31" s="103"/>
@@ -5311,6 +5337,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5324,28 +5372,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5372,14 +5398,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="296" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5572,11 +5598,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="291" t="s">
+      <c r="E27" s="297" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="292"/>
-      <c r="G27" s="293"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="299"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5955,7 +5981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -5972,10 +5998,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6002,8 +6028,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6042,14 +6068,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="47.25" customHeight="1">
       <c r="A5" s="110">
@@ -6064,14 +6090,14 @@
       <c r="D5" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="208" t="s">
+      <c r="E5" s="201" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
     </row>
     <row r="6" spans="1:10" s="142" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="139">
@@ -6086,14 +6112,14 @@
       <c r="D6" s="141">
         <v>42808</v>
       </c>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="202" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="204"/>
     </row>
     <row r="7" spans="1:10" s="146" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="143">
@@ -6108,14 +6134,14 @@
       <c r="D7" s="145">
         <v>42829</v>
       </c>
-      <c r="E7" s="197" t="s">
+      <c r="E7" s="206" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="208"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="76">
@@ -6130,36 +6156,36 @@
       <c r="D8" s="155">
         <v>42863</v>
       </c>
-      <c r="E8" s="200" t="s">
+      <c r="E8" s="209" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="201"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="202"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="211"/>
     </row>
     <row r="9" spans="1:10" s="162" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A9" s="294">
+      <c r="A9" s="174">
         <v>5</v>
       </c>
-      <c r="B9" s="295">
+      <c r="B9" s="175">
         <v>5</v>
       </c>
-      <c r="C9" s="296" t="s">
+      <c r="C9" s="176" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="296">
+      <c r="D9" s="176">
         <v>43133</v>
       </c>
-      <c r="E9" s="203" t="s">
+      <c r="E9" s="212" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="214"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="78">
@@ -6170,12 +6196,12 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="196"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="217"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="79">
@@ -6186,12 +6212,12 @@
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="196"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="217"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="80">
@@ -6202,12 +6228,12 @@
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="196"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="81">
@@ -6218,12 +6244,12 @@
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="82">
@@ -6234,12 +6260,12 @@
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="196"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -6250,12 +6276,12 @@
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="74">
@@ -6266,12 +6292,12 @@
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="75">
@@ -6282,12 +6308,12 @@
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="76">
@@ -6298,12 +6324,12 @@
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="77">
@@ -6314,12 +6340,12 @@
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="78">
@@ -6330,12 +6356,12 @@
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="205"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="205"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="79">
@@ -6346,12 +6372,12 @@
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="205"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="80">
@@ -6362,12 +6388,12 @@
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="81">
@@ -6378,12 +6404,12 @@
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="82">
@@ -6394,12 +6420,12 @@
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="205"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -6410,12 +6436,12 @@
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="74">
@@ -6426,12 +6452,12 @@
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="75">
@@ -6442,12 +6468,12 @@
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="76">
@@ -6458,12 +6484,12 @@
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="77">
@@ -6474,12 +6500,12 @@
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="205"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="78">
@@ -6490,12 +6516,12 @@
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="205"/>
+      <c r="J30" s="205"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="79">
@@ -6506,12 +6532,12 @@
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="205"/>
+      <c r="J31" s="205"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="80">
@@ -6522,12 +6548,12 @@
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="81">
@@ -6538,12 +6564,12 @@
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="82">
@@ -6554,26 +6580,20 @@
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="193"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -6590,11 +6610,17 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6639,10 +6665,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6673,8 +6699,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6705,20 +6731,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="212" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="213"/>
+      <c r="J4" s="219"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="39"/>
@@ -6729,10 +6755,10 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="219" t="s">
+      <c r="I5" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="220"/>
+      <c r="J5" s="226"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="39"/>
@@ -6743,8 +6769,8 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="222"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="228"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="39"/>
@@ -6755,8 +6781,8 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="42"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="222"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="228"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="39"/>
@@ -6767,8 +6793,8 @@
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="222"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="228"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="39"/>
@@ -6779,8 +6805,8 @@
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="42"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="222"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="228"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="39"/>
@@ -6791,8 +6817,8 @@
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="230"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="39"/>
@@ -6803,10 +6829,10 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="212" t="s">
+      <c r="I11" s="218" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="213"/>
+      <c r="J11" s="219"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="39"/>
@@ -6817,10 +6843,10 @@
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="215" t="s">
+      <c r="I12" s="221" t="s">
         <v>221</v>
       </c>
-      <c r="J12" s="216"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="39"/>
@@ -6831,8 +6857,8 @@
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="218"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="224"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="39"/>
@@ -6843,8 +6869,8 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="218"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="224"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="39"/>
@@ -6855,8 +6881,8 @@
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="42"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="218"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="224"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="39"/>
@@ -6867,8 +6893,8 @@
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="218"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="224"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="39"/>
@@ -6879,8 +6905,8 @@
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="218"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="224"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="39"/>
@@ -6891,8 +6917,8 @@
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="42"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="218"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="224"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="39"/>
@@ -6903,8 +6929,8 @@
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="218"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="224"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="39"/>
@@ -6915,8 +6941,8 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="42"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="218"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="224"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="39"/>
@@ -6927,8 +6953,8 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="42"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="218"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="224"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="39"/>
@@ -6939,8 +6965,8 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="42"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="218"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="224"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="39"/>
@@ -6951,8 +6977,8 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="218"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="224"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="39"/>
@@ -6963,8 +6989,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="218"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="224"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="39"/>
@@ -6975,8 +7001,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="42"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="218"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="224"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="39"/>
@@ -6987,8 +7013,8 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="218"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="224"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="39"/>
@@ -6999,8 +7025,8 @@
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="42"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="218"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="224"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="39"/>
@@ -7011,8 +7037,8 @@
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="42"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="218"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="224"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="39"/>
@@ -7023,8 +7049,8 @@
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="42"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="218"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="224"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="39"/>
@@ -7035,8 +7061,8 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="218"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="224"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="39"/>
@@ -7047,8 +7073,8 @@
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="218"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="224"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="39"/>
@@ -7059,8 +7085,8 @@
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="42"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="218"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="224"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="39"/>
@@ -7071,8 +7097,8 @@
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="218"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="224"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="39"/>
@@ -7083,8 +7109,8 @@
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="42"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="218"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="39"/>
@@ -7095,8 +7121,8 @@
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="218"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="224"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="39"/>
@@ -7107,8 +7133,8 @@
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="42"/>
-      <c r="I36" s="217"/>
-      <c r="J36" s="218"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="224"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="39"/>
@@ -7119,8 +7145,8 @@
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="42"/>
-      <c r="I37" s="217"/>
-      <c r="J37" s="218"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="224"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="39"/>
@@ -7131,8 +7157,8 @@
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="42"/>
-      <c r="I38" s="217"/>
-      <c r="J38" s="218"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="224"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="39"/>
@@ -7143,8 +7169,8 @@
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="42"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="218"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7199,12 +7225,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
       <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
@@ -7212,16 +7238,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="225" t="s">
+      <c r="G1" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="226"/>
-      <c r="I1" s="227" t="str">
+      <c r="H1" s="232"/>
+      <c r="I1" s="233" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF9002</v>
       </c>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="235"/>
       <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
@@ -7238,10 +7264,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
@@ -7249,16 +7275,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="G2" s="225" t="s">
+      <c r="G2" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="226"/>
-      <c r="I2" s="227" t="str">
+      <c r="H2" s="232"/>
+      <c r="I2" s="233" t="str">
         <f>'Update History'!F2</f>
         <v>Chọn liên hệ</v>
       </c>
-      <c r="J2" s="228"/>
-      <c r="K2" s="229"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="235"/>
       <c r="L2" s="30" t="s">
         <v>6</v>
       </c>
@@ -8187,7 +8213,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="106"/>
@@ -8223,7 +8249,7 @@
       <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="235"/>
+      <c r="A2" s="244"/>
       <c r="B2" s="107"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
@@ -8272,15 +8298,15 @@
       <c r="E4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="199" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206" t="s">
+      <c r="G4" s="199"/>
+      <c r="H4" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
     </row>
     <row r="5" spans="1:12" s="129" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="124">
@@ -8298,13 +8324,13 @@
       <c r="E5" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="230" t="s">
+      <c r="F5" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="238"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="247"/>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" ht="11.25">
       <c r="A6" s="32">
@@ -8314,11 +8340,11 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="233"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="241"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="239"/>
+      <c r="J6" s="240"/>
     </row>
     <row r="7" spans="1:12" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="32">
@@ -8328,11 +8354,11 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="233"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="241"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
     </row>
     <row r="8" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -8342,11 +8368,11 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="240"/>
-      <c r="J8" s="241"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="240"/>
     </row>
     <row r="9" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -8356,11 +8382,11 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="241"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="240"/>
     </row>
     <row r="10" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -8370,11 +8396,11 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="241"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="240"/>
     </row>
     <row r="11" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -8384,11 +8410,11 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="241"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -8398,11 +8424,11 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="241"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="237"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="240"/>
     </row>
     <row r="13" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -8412,11 +8438,11 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="241"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="240"/>
     </row>
     <row r="14" spans="1:12" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -8426,31 +8452,15 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="233"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="241"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="239"/>
+      <c r="J14" s="240"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
@@ -8458,6 +8468,22 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
@@ -8473,685 +8499,709 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1048240"/>
+  <dimension ref="A1:X1048240"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="22" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.85546875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="18" style="23" customWidth="1"/>
-    <col min="16" max="16" width="6" style="23" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" style="23" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="2" width="14.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="18" style="23" customWidth="1"/>
+    <col min="17" max="17" width="6" style="23" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" style="23" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="242" t="str">
+      <c r="J1" s="267" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="242"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="267"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="48" t="str">
+      <c r="M1" s="48" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF9002</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="46" t="str">
+      <c r="O1" s="46" t="str">
         <f>'Update History'!H1</f>
         <v>Hoàng vũ</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="257" t="str">
+      <c r="Q1" s="282" t="str">
         <f>'Update History'!J1</f>
         <v>Tấn Đạt</v>
       </c>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="47"/>
+      <c r="R1" s="283"/>
+      <c r="S1" s="284"/>
       <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="30" t="s">
+      <c r="U1" s="47"/>
+    </row>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="242" t="str">
+      <c r="J2" s="267" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT-CRM</v>
       </c>
-      <c r="J2" s="242"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="267"/>
+      <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="48" t="str">
+      <c r="M2" s="48" t="str">
         <f>'Update History'!F2</f>
         <v>Chọn liên hệ</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="46">
+      <c r="O2" s="46">
         <f>'Update History'!H2</f>
         <v>42346</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="257">
+      <c r="Q2" s="282">
         <f>'Update History'!J2</f>
         <v>43222</v>
       </c>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="47"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="284"/>
       <c r="T2" s="47"/>
-    </row>
-    <row r="4" spans="1:20" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="U2" s="47"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="170" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="D4" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="F4" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="G4" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="H4" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="I4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="J4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="212" t="s">
+      <c r="K4" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="36" t="s">
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="P4" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="Q4" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="R4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="S4" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="25" customFormat="1" ht="100.5" customHeight="1">
+    <row r="5" spans="1:21" s="25" customFormat="1" ht="100.5" customHeight="1">
       <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="108"/>
       <c r="D5" s="108"/>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="119"/>
+      <c r="H5" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="I5" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="J5" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="248" t="s">
+      <c r="K5" s="273" t="s">
         <v>224</v>
       </c>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="121" t="s">
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="121" t="s">
+      <c r="P5" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="P5" s="122" t="s">
+      <c r="Q5" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="Q5" s="122" t="s">
+      <c r="R5" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="S5" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="S5" s="47"/>
       <c r="T5" s="47"/>
-    </row>
-    <row r="6" spans="1:20" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="U5" s="47"/>
+    </row>
+    <row r="6" spans="1:21" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="32"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="G6" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="247" t="s">
+      <c r="H6" s="272" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="247" t="s">
+      <c r="I6" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="245" t="s">
+      <c r="J6" s="270" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="251" t="s">
+      <c r="K6" s="276" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="252"/>
-      <c r="L6" s="252"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="277"/>
+      <c r="M6" s="277"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="285" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="260" t="s">
+      <c r="P6" s="285" t="s">
         <v>230</v>
       </c>
-      <c r="P6" s="243" t="s">
+      <c r="Q6" s="268" t="s">
         <v>217</v>
       </c>
-      <c r="Q6" s="243" t="s">
+      <c r="R6" s="268" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="262"/>
-      <c r="S6" s="58"/>
+      <c r="S6" s="287"/>
       <c r="T6" s="58"/>
-    </row>
-    <row r="7" spans="1:20" s="33" customFormat="1" ht="11.25">
+      <c r="U6" s="58"/>
+    </row>
+    <row r="7" spans="1:21" s="33" customFormat="1" ht="11.25">
       <c r="A7" s="32">
         <v>3</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="32"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="G7" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="254"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="244"/>
-      <c r="Q7" s="244"/>
-      <c r="R7" s="263"/>
-      <c r="S7" s="58"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="271"/>
+      <c r="J7" s="271"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="280"/>
+      <c r="M7" s="280"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="286"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="269"/>
+      <c r="R7" s="269"/>
+      <c r="S7" s="288"/>
       <c r="T7" s="58"/>
-    </row>
-    <row r="8" spans="1:20" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="1:21" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
         <v>4</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="32"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="G8" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="254"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="58"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="271"/>
+      <c r="K8" s="279"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="269"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="288"/>
       <c r="T8" s="58"/>
-    </row>
-    <row r="9" spans="1:20" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="U8" s="58"/>
+    </row>
+    <row r="9" spans="1:21" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="32"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="G9" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="255"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="58"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="279"/>
+      <c r="L9" s="280"/>
+      <c r="M9" s="280"/>
+      <c r="N9" s="281"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="269"/>
+      <c r="S9" s="288"/>
       <c r="T9" s="58"/>
-    </row>
-    <row r="10" spans="1:20" s="33" customFormat="1" ht="12" customHeight="1">
+      <c r="U9" s="58"/>
+    </row>
+    <row r="10" spans="1:21" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
         <v>6</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="G10" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="255"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="263"/>
-      <c r="S10" s="58"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="271"/>
+      <c r="K10" s="279"/>
+      <c r="L10" s="280"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="281"/>
+      <c r="O10" s="286"/>
+      <c r="P10" s="286"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="269"/>
+      <c r="S10" s="288"/>
       <c r="T10" s="58"/>
-    </row>
-    <row r="11" spans="1:20" s="33" customFormat="1" ht="11.25">
+      <c r="U10" s="58"/>
+    </row>
+    <row r="11" spans="1:21" s="33" customFormat="1" ht="11.25">
       <c r="A11" s="137">
         <v>7</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="137"/>
+      <c r="C11" s="153" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="138" t="s">
+      <c r="D11" s="137"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="G11" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="255"/>
-      <c r="L11" s="255"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="244"/>
-      <c r="Q11" s="244"/>
-      <c r="R11" s="263"/>
-      <c r="S11" s="58"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="271"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="279"/>
+      <c r="L11" s="280"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="281"/>
+      <c r="O11" s="286"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="269"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="288"/>
       <c r="T11" s="58"/>
-    </row>
-    <row r="12" spans="1:20" ht="12" customHeight="1">
-      <c r="A12" s="276"/>
-      <c r="B12" s="276" t="s">
+      <c r="U11" s="58"/>
+    </row>
+    <row r="12" spans="1:21" ht="12" customHeight="1">
+      <c r="A12" s="248"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="248" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="276"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="276"/>
-      <c r="G12" s="276" t="s">
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="276" t="s">
+      <c r="I12" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="279" t="s">
+      <c r="J12" s="254" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="267" t="s">
+      <c r="K12" s="258" t="s">
         <v>245</v>
       </c>
-      <c r="K12" s="268"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="269"/>
-      <c r="N12" s="279" t="s">
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="260"/>
+      <c r="O12" s="254" t="s">
         <v>246</v>
       </c>
-      <c r="O12" s="279" t="s">
+      <c r="P12" s="254" t="s">
         <v>248</v>
       </c>
-      <c r="P12" s="276"/>
-      <c r="Q12" s="276"/>
-      <c r="R12" s="264" t="s">
+      <c r="Q12" s="248"/>
+      <c r="R12" s="248"/>
+      <c r="S12" s="255" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="12" customHeight="1">
-      <c r="A13" s="277"/>
-      <c r="B13" s="277"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="277"/>
-      <c r="I13" s="277"/>
-      <c r="J13" s="270"/>
-      <c r="K13" s="271"/>
-      <c r="L13" s="271"/>
-      <c r="M13" s="272"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="265"/>
-    </row>
-    <row r="14" spans="1:20" ht="12" customHeight="1">
-      <c r="A14" s="277"/>
-      <c r="B14" s="277"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="277"/>
-      <c r="J14" s="270"/>
-      <c r="K14" s="271"/>
-      <c r="L14" s="271"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="277"/>
-      <c r="O14" s="277"/>
-      <c r="P14" s="277"/>
-      <c r="Q14" s="277"/>
-      <c r="R14" s="265"/>
-    </row>
-    <row r="15" spans="1:20" ht="12" customHeight="1">
-      <c r="A15" s="277"/>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="277"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="270"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="271"/>
-      <c r="M15" s="272"/>
-      <c r="N15" s="278"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="277"/>
-      <c r="Q15" s="277"/>
-      <c r="R15" s="265"/>
-    </row>
-    <row r="16" spans="1:20" ht="12" customHeight="1">
-      <c r="A16" s="277"/>
-      <c r="B16" s="277"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="270"/>
-      <c r="K16" s="271"/>
-      <c r="L16" s="271"/>
-      <c r="M16" s="272"/>
-      <c r="N16" s="279" t="s">
+    <row r="13" spans="1:21" ht="12" customHeight="1">
+      <c r="A13" s="249"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="262"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="249"/>
+      <c r="Q13" s="249"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="256"/>
+    </row>
+    <row r="14" spans="1:21" ht="12" customHeight="1">
+      <c r="A14" s="249"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="261"/>
+      <c r="L14" s="262"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="249"/>
+      <c r="P14" s="249"/>
+      <c r="Q14" s="249"/>
+      <c r="R14" s="249"/>
+      <c r="S14" s="256"/>
+    </row>
+    <row r="15" spans="1:21" ht="12" customHeight="1">
+      <c r="A15" s="249"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="249"/>
+      <c r="J15" s="249"/>
+      <c r="K15" s="261"/>
+      <c r="L15" s="262"/>
+      <c r="M15" s="262"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="250"/>
+      <c r="P15" s="250"/>
+      <c r="Q15" s="249"/>
+      <c r="R15" s="249"/>
+      <c r="S15" s="256"/>
+    </row>
+    <row r="16" spans="1:21" ht="12" customHeight="1">
+      <c r="A16" s="249"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="249"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="262"/>
+      <c r="M16" s="262"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="254" t="s">
         <v>247</v>
       </c>
-      <c r="O16" s="279" t="s">
+      <c r="P16" s="254" t="s">
         <v>249</v>
       </c>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="277"/>
-      <c r="R16" s="265"/>
-    </row>
-    <row r="17" spans="1:23" ht="12" customHeight="1">
-      <c r="A17" s="277"/>
-      <c r="B17" s="277"/>
-      <c r="C17" s="277"/>
-      <c r="D17" s="277"/>
-      <c r="E17" s="277"/>
-      <c r="F17" s="277"/>
-      <c r="G17" s="277"/>
-      <c r="H17" s="277"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="270"/>
-      <c r="K17" s="271"/>
-      <c r="L17" s="271"/>
-      <c r="M17" s="272"/>
-      <c r="N17" s="277"/>
-      <c r="O17" s="277"/>
-      <c r="P17" s="277"/>
-      <c r="Q17" s="277"/>
-      <c r="R17" s="265"/>
-    </row>
-    <row r="18" spans="1:23" ht="12" customHeight="1">
-      <c r="A18" s="277"/>
-      <c r="B18" s="277"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="270"/>
-      <c r="K18" s="271"/>
-      <c r="L18" s="271"/>
-      <c r="M18" s="272"/>
-      <c r="N18" s="277"/>
-      <c r="O18" s="277"/>
-      <c r="P18" s="277"/>
-      <c r="Q18" s="277"/>
-      <c r="R18" s="265"/>
-    </row>
-    <row r="19" spans="1:23" ht="12" customHeight="1">
-      <c r="A19" s="278"/>
-      <c r="B19" s="278"/>
-      <c r="C19" s="278"/>
-      <c r="D19" s="278"/>
-      <c r="E19" s="278"/>
-      <c r="F19" s="278"/>
-      <c r="G19" s="278"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="278"/>
-      <c r="J19" s="273"/>
-      <c r="K19" s="274"/>
-      <c r="L19" s="274"/>
-      <c r="M19" s="275"/>
-      <c r="N19" s="278"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="266"/>
-    </row>
-    <row r="20" spans="1:23" s="162" customFormat="1" ht="90.75" customHeight="1">
+      <c r="Q16" s="249"/>
+      <c r="R16" s="249"/>
+      <c r="S16" s="256"/>
+    </row>
+    <row r="17" spans="1:24" ht="12" customHeight="1">
+      <c r="A17" s="249"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="249"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
+      <c r="K17" s="261"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="249"/>
+      <c r="P17" s="249"/>
+      <c r="Q17" s="249"/>
+      <c r="R17" s="249"/>
+      <c r="S17" s="256"/>
+    </row>
+    <row r="18" spans="1:24" ht="12" customHeight="1">
+      <c r="A18" s="249"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="262"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="249"/>
+      <c r="P18" s="249"/>
+      <c r="Q18" s="249"/>
+      <c r="R18" s="249"/>
+      <c r="S18" s="256"/>
+    </row>
+    <row r="19" spans="1:24" ht="12" customHeight="1">
+      <c r="A19" s="250"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="264"/>
+      <c r="L19" s="265"/>
+      <c r="M19" s="265"/>
+      <c r="N19" s="266"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="257"/>
+    </row>
+    <row r="20" spans="1:24" s="162" customFormat="1" ht="90.75" customHeight="1">
       <c r="A20" s="156"/>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="156">
+        <v>92</v>
+      </c>
+      <c r="C20" s="156" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="156"/>
       <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="159" t="s">
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="H20" s="159" t="s">
+      <c r="I20" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="160" t="s">
+      <c r="J20" s="160" t="s">
         <v>279</v>
       </c>
-      <c r="J20" s="280" t="s">
+      <c r="K20" s="251" t="s">
         <v>280</v>
       </c>
-      <c r="K20" s="281"/>
-      <c r="L20" s="281"/>
-      <c r="M20" s="282"/>
-      <c r="N20" s="161" t="s">
+      <c r="L20" s="252"/>
+      <c r="M20" s="252"/>
+      <c r="N20" s="253"/>
+      <c r="O20" s="161" t="s">
         <v>281</v>
       </c>
-      <c r="O20" s="161" t="s">
+      <c r="P20" s="161" t="s">
         <v>282</v>
       </c>
-      <c r="P20" s="165"/>
       <c r="Q20" s="165"/>
-      <c r="R20" s="166" t="s">
+      <c r="R20" s="165"/>
+      <c r="S20" s="166" t="s">
         <v>287</v>
       </c>
-      <c r="S20" s="163"/>
       <c r="T20" s="163"/>
       <c r="U20" s="163"/>
       <c r="V20" s="163"/>
-      <c r="W20" s="164"/>
-    </row>
-    <row r="1048240" spans="16:16" ht="12" customHeight="1">
-      <c r="P1048240" s="66"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="164"/>
+    </row>
+    <row r="1048240" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048240" s="66"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="34">
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="R6:R11"/>
+    <mergeCell ref="Q6:Q11"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K6:N11"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O6:O11"/>
+    <mergeCell ref="P6:P11"/>
+    <mergeCell ref="S6:S11"/>
+    <mergeCell ref="S12:S19"/>
+    <mergeCell ref="K12:N19"/>
+    <mergeCell ref="H12:H19"/>
+    <mergeCell ref="I12:I19"/>
+    <mergeCell ref="J12:J19"/>
     <mergeCell ref="O12:O15"/>
     <mergeCell ref="O16:O19"/>
-    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="Q12:Q19"/>
+    <mergeCell ref="R12:R19"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="F12:F19"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="D12:D19"/>
     <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="R12:R19"/>
-    <mergeCell ref="J12:M19"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="H12:H19"/>
-    <mergeCell ref="I12:I19"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="P12:P19"/>
-    <mergeCell ref="Q12:Q19"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Q6:Q11"/>
-    <mergeCell ref="P6:P11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J6:M11"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="N6:N11"/>
-    <mergeCell ref="O6:O11"/>
-    <mergeCell ref="R6:R11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048240:P1048576 P5:P6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G6">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048240:Q1048576 Q5:Q6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R6">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9170,13 +9220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="22" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="22" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="22" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="22" customWidth="1"/>
@@ -9187,10 +9237,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9221,8 +9271,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
@@ -9677,16 +9727,16 @@
         <v>234</v>
       </c>
       <c r="B37" s="133"/>
-      <c r="C37" s="285" t="s">
+      <c r="C37" s="291" t="s">
         <v>240</v>
       </c>
-      <c r="D37" s="285"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="285"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="285"/>
-      <c r="J37" s="222"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="291"/>
+      <c r="F37" s="291"/>
+      <c r="G37" s="291"/>
+      <c r="H37" s="291"/>
+      <c r="I37" s="291"/>
+      <c r="J37" s="228"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="65"/>
@@ -9701,10 +9751,10 @@
       <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
-      <c r="A39" s="286" t="s">
+      <c r="A39" s="292" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="287"/>
+      <c r="B39" s="293"/>
       <c r="C39" s="147" t="s">
         <v>243</v>
       </c>
@@ -9717,8 +9767,8 @@
       <c r="J39" s="149"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
-      <c r="A40" s="286"/>
-      <c r="B40" s="287"/>
+      <c r="A40" s="292"/>
+      <c r="B40" s="293"/>
       <c r="C40" s="147" t="s">
         <v>244</v>
       </c>
@@ -9731,42 +9781,42 @@
       <c r="J40" s="149"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
-      <c r="A41" s="286"/>
-      <c r="B41" s="287"/>
-      <c r="C41" s="288" t="s">
+      <c r="A41" s="292"/>
+      <c r="B41" s="293"/>
+      <c r="C41" s="294" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="288"/>
-      <c r="E41" s="288"/>
-      <c r="F41" s="288"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="288"/>
-      <c r="I41" s="288"/>
-      <c r="J41" s="289"/>
+      <c r="D41" s="294"/>
+      <c r="E41" s="294"/>
+      <c r="F41" s="294"/>
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="295"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
-      <c r="A42" s="286"/>
-      <c r="B42" s="287"/>
-      <c r="C42" s="288"/>
-      <c r="D42" s="288"/>
-      <c r="E42" s="288"/>
-      <c r="F42" s="288"/>
-      <c r="G42" s="288"/>
-      <c r="H42" s="288"/>
-      <c r="I42" s="288"/>
-      <c r="J42" s="289"/>
+      <c r="A42" s="292"/>
+      <c r="B42" s="293"/>
+      <c r="C42" s="294"/>
+      <c r="D42" s="294"/>
+      <c r="E42" s="294"/>
+      <c r="F42" s="294"/>
+      <c r="G42" s="294"/>
+      <c r="H42" s="294"/>
+      <c r="I42" s="294"/>
+      <c r="J42" s="295"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
-      <c r="A43" s="286"/>
-      <c r="B43" s="287"/>
-      <c r="C43" s="288"/>
-      <c r="D43" s="288"/>
-      <c r="E43" s="288"/>
-      <c r="F43" s="288"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="288"/>
-      <c r="I43" s="288"/>
-      <c r="J43" s="289"/>
+      <c r="A43" s="292"/>
+      <c r="B43" s="293"/>
+      <c r="C43" s="294"/>
+      <c r="D43" s="294"/>
+      <c r="E43" s="294"/>
+      <c r="F43" s="294"/>
+      <c r="G43" s="294"/>
+      <c r="H43" s="294"/>
+      <c r="I43" s="294"/>
+      <c r="J43" s="295"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="150"/>
@@ -9795,60 +9845,62 @@
       <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
-      <c r="A46" s="167"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="283" t="s">
+      <c r="A46" s="300" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="289" t="s">
         <v>283</v>
       </c>
-      <c r="D46" s="283"/>
-      <c r="E46" s="283"/>
-      <c r="F46" s="283"/>
-      <c r="G46" s="283"/>
-      <c r="H46" s="283"/>
-      <c r="I46" s="283"/>
-      <c r="J46" s="284"/>
+      <c r="D46" s="289"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="289"/>
+      <c r="H46" s="289"/>
+      <c r="I46" s="289"/>
+      <c r="J46" s="290"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
-      <c r="A47" s="167"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="169" t="s">
+      <c r="A47" s="301"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="168" t="s">
         <v>284</v>
       </c>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="170"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="167"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="169"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
-      <c r="A48" s="167"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="169" t="s">
+      <c r="A48" s="301"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="168" t="s">
         <v>285</v>
       </c>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="170"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="169"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="A49" s="167"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="169" t="s">
+      <c r="A49" s="302"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="168" t="s">
         <v>286</v>
       </c>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="170"/>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="169"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="65"/>
@@ -10590,12 +10642,13 @@
       <c r="J111" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C46:J46"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C37:J37"/>
     <mergeCell ref="A39:B43"/>
     <mergeCell ref="C41:J43"/>
+    <mergeCell ref="A46:A49"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
@@ -10632,10 +10685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="199"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -10666,8 +10719,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="206"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
